--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/66_Sakarya_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/66_Sakarya_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FBA1B61-C214-44DC-A85B-3F323002C19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17BEA8A-AA19-404A-B124-549AADC126F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{F6940000-B1C2-4356-92E6-79E94605CB60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{729746B7-FD27-4A81-94B1-F99E1EE820C2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -953,13 +953,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A482C594-2DE8-408D-BB9A-9706E1B570B0}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B2811C0C-D2C9-4E8D-995E-476E13344541}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{BCA35835-D5FC-42EF-9A51-FA21E462DBC8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{D2165FB8-8E2C-4AC3-BCA7-2C9D9F5000C1}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{DBFDC9C4-FD83-479B-85DE-D822D9457F7A}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{67A35109-1D46-43B6-B070-C0EE1AEE4272}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{224FF7C6-69DE-47BE-9487-76587C27BF6A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{CFBC58AC-CB9A-49C1-95EC-797D8504911F}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4CE6E596-74EE-4907-A298-24810E8DC457}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4525161E-3B95-4750-82E9-2722F500D183}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6752920F-37C8-44DD-9533-C969514F2F72}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D9B44159-4738-4B73-8E0D-1E5730BE4303}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{3B7F029A-C6ED-4BEB-BB51-1512C12915F6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AAE69942-16C5-4D7D-80D0-632BF3015C09}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE1D37C-A348-4BF4-86BD-AD2B770641C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EAC853-3F11-426C-9A9B-C8236F5A647E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2578,18 +2578,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB760832-FB91-4612-BD59-A9A2583C6470}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5883B91-9249-4B6D-9ABF-5E2AFDE6D758}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{10EB338B-D95A-4978-8E4C-9D2296024F2E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5ED571B6-AFE2-40FF-806A-270DCD941D25}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0215F23B-B672-419C-A492-4537A7E9A866}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{41B22BFB-D5C0-4BC9-9FB2-D50B6F15EB4C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{243DC629-D8C7-4FB9-9A9C-A50328A1D97E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39E3A822-4E96-45ED-BFEA-84A42D0F4516}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1289756C-3B5E-46C0-A578-C6CFA094281B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0205A6A6-DA46-49AA-BA4E-74EB99046143}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA3EC25A-9AE9-44F7-AEC7-BD558BBEFBDF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{14B14457-3571-4324-B5AB-CC8B1C07C82B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE49EC8E-C023-4C72-9707-49E00C97533C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB550795-4BEE-4B84-B24D-6DF7F5A090C8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6378E797-91A1-4D7B-9028-B0468E6078AD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{233FE640-9821-4D12-9EA2-F92AACA08097}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52AB5FFA-CD96-4BF0-A5EE-3E3080129ACE}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5DEA6064-99E8-40F9-87B5-AEE386F6FA55}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A568340C-84EC-4CF8-AF18-AF305D56E765}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3D4AFB9-C218-4626-B84B-680D0577509F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FEABC1AA-A816-456B-995E-A4573F2F8F68}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B224151B-C92D-4900-A0CA-89EB76C8BD41}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE8A5BAE-82FC-4D75-A1BE-E5961ED8133F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF7807A4-CD74-44E9-A633-A2345FE80491}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2602,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD304399-45AC-49C9-988C-55BC4C3D8BAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59848C22-F2CE-4848-BBED-6A5C6E37914E}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3846,18 +3846,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E8BC07C-9ACB-40BE-ADA0-86023A144B66}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59FE88C8-A2C1-4237-B6A4-FB368693FC07}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D61975FD-97E7-4E71-AD0C-CB0359117D24}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{29589CD7-0E18-4E5E-A1D0-5F407CC3F6BD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ADE0EDF0-D7E7-406B-ADF8-2D374086D339}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F9E8D684-5F4F-4C1A-8E87-C6855931ADDC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03CDD8B4-BDDA-40A0-85BC-C359EC5F8C69}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E48937D-5A7E-4EFA-A528-0A9D80243877}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48B879E2-0EE2-4013-906C-2EDB90ACC036}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C90A34F9-AA6B-42C2-8627-FCFDDE7FACFC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39F771C6-3B3C-416D-AF64-6F6AD1ACE984}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE1077BF-4C4D-42F2-A980-AB13B9E4930E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94764333-337B-456C-A038-C459E8F6BE23}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F2E300C6-5EFC-43A5-BB98-D262B1FD6EF0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4B1E046A-F2AA-44C8-A8ED-552FC3768B5E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AAEDBF83-7369-40AE-9B22-F13465F376B5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F2440B2C-92D8-42A6-BA1B-A5991B327BE7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4DC9ED38-22A7-4C84-8C00-D3521B431140}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{693B7B3F-691D-42CC-A1D1-B29839F5B5F5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{672A1398-A990-428E-B36B-43C80FAEA10F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E6982175-1682-4345-B715-8A7A24F80E4E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A90BAFC5-33BA-47E5-BA6B-7368C491E504}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2325B68-613D-4848-B029-A27E1F2652AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B363D3A9-0038-4594-B3CC-84BF7B89DD81}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3870,7 +3870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FA4D08-A27E-4192-AFE4-8836EF68E3F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955A6179-7928-4A15-85D0-2F5CD33A7806}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5114,18 +5114,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E3849D9-1042-45A6-A7CE-37952AE4E655}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26C1A962-A84C-4D1D-981B-31F8EBD079B3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A5A10501-1886-47B1-B6C7-4AEF443D7EAD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1C337D66-6045-4370-9FD0-D6E444D25D9E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6926C6A2-F9D7-4F09-995F-D75C2503C43C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8EDB1B99-DAF9-403A-8182-190350C04B30}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65148C51-FBFE-4B4D-BCFD-2503B06BA0DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B203BBB5-465B-4DA2-9345-F96AE69FBD8C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5133F2C0-B888-47C1-997F-0E4FA8262692}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC1699B7-0C23-41C3-91F3-89E592A5A3B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CE96DA7-CE62-4336-8D9B-009ED37567AE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4CCC777-9C82-43A6-A903-2425FE0376F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{056B4A20-6AF8-492C-BE4D-8B790B1BF82E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F76A5584-A4BD-4B17-A2A3-3C70F0159FE8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{505D2F80-6BF3-4A8A-A59A-3D73AB8AE62D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9DBBB137-F83E-4A56-8429-92579EFAD637}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45AE4570-07ED-4C46-AD1E-64E5ACBC5969}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B473C704-F83C-4C10-8EA6-A12EB6B64FC6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A9DD273-ECE6-43EF-B911-5295DADD721B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E21044BC-9256-4CA6-85B5-0819AF800EC2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DBF0B9F7-ADD3-480D-AF8A-48A2FA2190CB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AA2EFD18-870A-45C1-95BE-C17C301C39F2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F01F99D8-5BD3-45B4-B107-B3A7C2A59E03}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{29D46855-FC58-494C-A3E9-D6D3E86E2198}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5138,7 +5138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E4F20D-44E9-41F6-90D7-F78C71A9AC9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BB9F39-207A-44B1-BE70-A3174EE36862}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6382,18 +6382,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E576939-67E5-4D0F-9FB0-499D27BFCD56}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC146B36-4576-4934-AC8C-238A16D59459}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{615BD07F-C6A4-4D71-B553-326D9688224D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{483F6405-86D4-422C-B0FE-1083B83B37E6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C3C06D27-3B33-4E90-A116-ECB4D1676BE4}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9B315356-867D-4219-95D5-1DC875AE402A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9CA5403B-A8E5-493E-BDED-F304F0F23CDC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D459B19-9C0C-49A2-BB49-0A0FEE06BE46}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7410821-57A6-453E-9E8C-F5F220BDAA76}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F1CD21F8-7EC5-4262-8596-B68BAFF27A60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2C40A35-7CA1-4EE4-9C9F-5E22B0D03746}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8FFEDCB2-9469-4980-B3A6-B7BEE85AD5EF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF5F3409-F52F-4BED-8EF7-FADC67316661}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D2754B0-00A5-4B92-8F5A-AF2636A4856A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8594F9A4-41E9-418F-9EC7-E78A63135179}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B9C17300-1064-453F-ABAE-629C16733E99}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0741492C-6ACE-45F7-BC09-A16FC6C7A234}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{30810082-90BA-4C2A-836E-A6ABA51205B7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ACEF488E-A94B-4FF7-87AD-1525B9F80C5E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09786CA4-CECE-4DF2-92F2-3785EE0B0404}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74E74AB2-97E5-46D6-931B-09A143B817AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE76012D-20EC-4AEA-B366-1ECCD86DF2B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CA28562-CDE2-4B4D-A637-8415710C4432}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7DF8341-6837-4C30-9CA3-FF90C99D5320}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6406,7 +6406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670C1983-2FC7-49BF-80FB-4E58C56E390E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A53F40-EAD3-46BB-9B7D-C3FB5DD71EF4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7657,18 +7657,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93633DE4-3416-4D12-A461-0347F299A4CB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{109E952F-E5C6-470E-A028-FE686E10B3C5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{17093265-E862-4CB1-9333-087776EC6CDC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0950AAE5-117F-48FE-B0A4-8CF709978542}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69B85260-1FF8-43AD-8B63-F5A121ED54EC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A1AB68C2-9302-40E0-A624-3EDCDD7DDCF8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE589A99-4A2A-4568-B6FD-4B141B81887D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81462F2E-4411-4DC3-9B56-2167905987D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECEB9E3D-D97A-453C-B979-685DA1C44439}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{521E7648-7BE5-41D3-A7EE-BA6FDD3B29D0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D70796D-4409-4AE8-8570-43A26D07A464}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5D02ED1-76A9-40F2-A327-F7AB7FFA1F1F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{572FDE62-1B06-4682-AC10-6F6E2687A980}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC47EEF3-4C1A-4896-9943-41E301F0701F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A6E717C-5E06-4E75-B71E-CC4DC22110EE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FCB3840E-1D0E-4716-9A6F-3AD1B2F1A74D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0881A47-D6C1-42B4-B34B-85E35FAF107F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3E2F8CCD-0452-455A-A692-4EFC3A5B6777}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C70EEC78-E13A-41BB-96FB-582E0E631730}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D50E889E-8F8A-421F-8BA6-2BD679491DA0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F12B8D53-1369-4FA8-AC02-4C8574867420}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FF8761C7-9266-4AEA-8734-064623AACB47}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80766BC7-3E45-4A1A-AEFF-224D7677511E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{413C0E43-D98F-4B55-8A3C-414991855359}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7681,7 +7681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B5EA18-F5DC-4030-87CB-C02A4CB8F571}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD61455-8EF3-4FF3-8FAB-597EA09173B1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8932,18 +8932,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C90FF7D0-C147-41BD-8DA4-BE5B8B61647B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC9087B3-9C33-4D35-B9C4-ACC30A70AC65}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3F2B3809-8E8E-4FB5-9ED7-267D08D3250B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4D43D2F8-8237-45B4-9CB8-4D150D6337D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46323AC3-D37E-415A-B974-0B4BEE30C6FD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9812861C-B9DD-4CCD-ABD8-19AD2AE5AF8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E3582EE-E41C-4BC1-ABB2-DCCD60A4C6D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8EBA0BCC-7EB7-40C8-A616-85296FD3A958}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{166CA6D9-D90F-41EA-B680-CB1D764BDFB3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{77C2D51A-791E-42BA-80CC-0AF8EFC846CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A724E70-5212-48AE-AA08-F4F43A93BE65}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E011C662-452D-4BA2-95CE-4EA5394E1517}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7623F31-B627-4630-A071-DE0C9BABD156}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26960309-4750-4CA6-8A5B-DA19F89BFE05}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3DF6AD56-E9CA-4CCE-B66A-679563B39037}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BB3ED622-A188-4CB2-A751-417AF783B930}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9CE44F99-F22B-4637-8B87-EB9C0C648939}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E99508F7-C3F0-498F-B394-1526883CDE0C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9114CD0E-5DDA-4CE7-8698-5CBCD92974AF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5508D2C-2BBE-4AC9-8637-12C1A11AFD3B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{130DB0D3-FAB9-424D-BC88-E20FF6A2A487}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{95004F4B-14E8-488D-9755-47D3D0B8334B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0CDCC86C-1FCA-4B08-AE09-168C0230E1ED}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B6197168-5581-4BE5-9464-7955888B2643}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8956,7 +8956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1404C1-B16B-434E-9796-E65FD1D6A56E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA334D1-AC1F-41B6-B2E5-2BE4DA6A0EAD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10207,18 +10207,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{783C5C39-5025-4073-AF48-F38EC183122E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32E604DB-5AA6-4632-AA3C-CA10D9208C23}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{209DF18F-0A86-4E0C-8506-DB5021551F25}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ABDF6491-BA03-4784-AD3F-3A948BA279EB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68433943-2092-4B6B-BCDD-D16CE2DF81C3}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{05AFB4B5-C7C6-442E-AED8-876F7F553EF2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0398C1CD-5A01-4697-A36D-43863DB92F7C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{146DBE4D-0A56-4EB1-A94E-4F1C3D3B3775}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3C8BA684-1FCA-4E93-92CF-CB6554C9B929}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7A4E482-7902-404C-8675-4737025356DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D5D7B0F-1A4B-4AD2-A080-BC4C034F8E12}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B65AD158-C60D-4A53-8EC0-68AF5AF9E5A5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11A54709-033F-4E75-9137-9BAD43A04DE0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAD9C599-1AD2-47E0-AF2F-7E3DEC1039AC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A10B42A9-F1AB-43F5-800B-EBA52E356AD5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E673560-1397-410B-B1F6-A0A24D96018A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62743EF3-1949-4431-81CC-BD68209732FD}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{30C477AD-A305-4953-85BD-BB7DF5AD1A6B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CDEC557-9343-4D4C-8863-D68B81B70CCA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41BC856B-1EE2-4257-B619-A7C9B5F069BD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F30A67A-6E04-4CF6-A834-3A121FDF703D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E4BDAF3-08A9-44C4-95DF-880E2ACC159F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{418A0CD6-EA42-4326-845A-7237E8A5B0CE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E0B139F-5FC7-4A36-808A-2E134DF19F9F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10231,7 +10231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99032468-2962-4327-BB1F-2584E399FFD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC66B9C-8D8F-4C28-85ED-584F67B93766}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11480,18 +11480,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17851F18-AE42-4B4A-8294-88CEEADD1BAE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F0D0E19-29FE-4E58-A93E-BED4EBD91C7C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{110B2C7C-91CD-46F9-BBA4-B47469090EDB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CA4AC315-DD23-4D51-99CC-9BEB4DD60294}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2A97960-E43F-4446-9E90-145EC9709097}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A2945064-0E64-4024-A2AE-52A3B0185DFE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4270523-2707-4DC8-AF20-26B8171F5B65}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22B90A02-B0F2-4846-9479-EC1137DA6CB9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3A60088-96C8-4EC9-A3F1-2F15E83E7750}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{35695D05-A843-4BBD-9DAE-112DAA252A37}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC8B945E-E770-4F80-A3B9-86A5701A8193}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C1079AA-1DBA-4C5C-8CEF-6BDB49C2CEF1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D35E0C8C-6F6C-4B54-873D-D63AAE556DB4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{54BB3129-EE4E-4804-8712-7C526FBED1DD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{46AE705B-EE1A-4401-98C9-FA826FFA5CF6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CCDDC204-E04A-40B2-97A2-B0ACB3EF00D6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{404168A3-3E5B-41F1-A30D-F45817CE2520}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CC2A4302-4C56-4E46-8D2C-8D36012E7116}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B9DA7A9-FA23-4063-996B-73AA64AB63C7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD80D160-C6D0-456C-A7A2-0680B9BD2CCC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3186654D-C595-4E73-B336-891AC6A91CAD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8686A0A-CFC9-467E-8FA7-CD26051ACED4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97AE3ABB-1770-44FA-B289-49CCF328944B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30CE342E-5668-4492-8128-CEDFEE001877}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11504,7 +11504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1D6C84-78DC-45D8-A20D-F06DCF12ADE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D27B0EE-23B4-43B5-AE6B-CEB00A3F8677}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12756,18 +12756,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE93781F-EE21-4589-BFFB-C660759E55D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C491588-B66F-4CD3-B03F-81431F25013A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{16AA9CCE-CCBC-4BB1-9C70-84E0705C7F1A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3EB3005E-0E41-44AB-91AC-01A46E3E0AF2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E0D7AE8-CAB5-4AE6-976F-EED4FECA09C5}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9DD010B6-F0C1-4787-84E0-CB0087BDBC0B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A0358DC-BB10-4DB6-BD1B-5BDFB4CF3851}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8519D9E9-1C2C-42F0-8BA8-1FA6F7CB569D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C208D6A-B9C6-499A-8126-9F20122A90C3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{747E8124-95A9-4EDF-A32E-9321610811C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2858544-4244-46ED-8021-AD41FFC6BEC7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{117FD140-5261-4DB3-B79D-96A6ABB730CE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F26F4A2-3CCA-4D8C-80D8-633148B63B1D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40443978-C347-437A-B7E7-55B6D4DE78D9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A1700DD3-10B9-4C09-895B-0E91A6F64F00}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{35E81739-4C5A-46E1-8009-625844D82343}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{524F037B-181D-489E-ABBA-DB729A5496BC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{198D922F-1211-4B48-8816-B122DDA3026E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E35AAE8-F83C-429E-A35F-607262247645}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E07E507-1476-475D-B419-EFE5EF3444A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1CBA08EE-CBD6-4119-83C7-43E7F4CD2CB6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CEE451FC-BA41-431D-AB42-D9C0714A3343}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A49924C-5F40-4474-9B45-FB1E45D30795}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81F60788-8E83-48A8-86E6-A52C04396D0A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12780,7 +12780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869C9A77-DAF6-4047-AA92-B06ADF7B5EC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF862917-8AAC-408C-995A-54E29733DED8}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14032,18 +14032,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{081E9EF0-B3DF-4575-8436-7B2E56DD0DA2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD74DEFB-56B3-4039-8948-27935371A1F1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{568C9863-C931-4DA3-885D-0BBF2BF4B977}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2F213963-68AC-43B1-8D18-9E11F3ED56D1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7D27DC5-133C-42A5-A7A5-DE970ACCC832}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0139EDFD-88AE-43E5-B87F-702600CB01A5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F39179D-028A-448B-B2AE-982AA100513E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD5AE056-28A3-4A51-8384-9918A8BAD2D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{27ABC499-0C6A-437D-A48E-4F5B28BF1415}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1EDD600A-4A04-48D9-B55F-E79ACC38F4B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13D6E34E-8A15-4ED5-BE01-41554977006A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0250E6B-8EA6-4320-8271-3545D9866F11}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6BFAF086-9FFC-4819-BE6E-CE8533E9D3B8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96282BDC-5146-4509-8DE5-3AE82998C93B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{99F6C593-F8D7-4E8D-8D75-3933D9E59903}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E8DDB6AA-1E7D-44C8-9284-2B5133F963FD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E4E5CAFA-6D14-4FD1-9206-3808DEC3407F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{62B620C5-3400-472B-A97D-5D56FBDD6EF5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54AAB942-0A06-412A-84D6-2A6F314462B3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FEEED5F-017A-4962-9C81-C592DB7E64D5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B43F846-AC15-485E-82BA-48ABDD4E9193}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B2E775EE-CCDD-4250-A1B7-CA72D6176C67}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BE0630E-723A-466F-AF81-14A9FA57C9F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B697AB2-52C0-4CC3-8058-4B8A630C4DCB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14056,7 +14056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04EE9D3-5899-4521-BC3D-17A4ADD18786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0640DE-3F11-4222-91FF-8DF4B78E7614}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15308,18 +15308,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{237B0B48-CAA7-42D5-92A0-D42BDAAF820E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C88F663A-4676-4769-8196-9B45E15D8ACA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F443F30D-E185-408C-B61A-0AA836DAE888}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6E23907E-DD42-4EC1-9520-3BBD8E7682DA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F598870F-40D4-4F96-8E19-0BD8E69C3A3D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7A0E4EE5-D8C0-456F-A569-0C94B9DD5994}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63845EBD-4276-4A03-B74A-07FF93510A99}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{232327B9-39C8-4F88-8D6D-1A6AEA5C1E64}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A4D8F39-9DD3-4726-B315-4AA19B6F436C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{680130E1-94CC-4DED-BE26-D981415973F6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DA2E504-BA78-4CCF-AC69-C61AF46BB17A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63A0F3DB-B690-473D-9E69-3BFCF0931E8D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5EE4078-EBDE-45D9-AE62-900799E426E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7AD68784-9D2C-4CA8-94E5-A30754B6902C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{71C15E9B-E5F7-4E18-A31E-F2E9CD54A5EA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8B1ED54B-586C-4FA9-B4FA-14D147BD44B5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3284CAA5-A9EC-410D-BDC2-7CDFFFCB0BC0}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{144DC03E-C3F6-4DC0-B0D0-E56AF83AEDDE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC66B7B4-DC01-48DC-BD99-2C1E8858FD41}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{311DB3DC-28B6-4D1B-BC5B-6BFC2187D9B9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E758F10-A3DB-4526-BFE6-E5025B2621B1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B4E179D-E9D9-4A88-B78E-B26A16BE1086}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FACF315-E44E-4930-8238-55834417F832}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18884082-7516-483A-8370-90C45485D17F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15332,7 +15332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F1DA85-80EB-4A51-8859-CFFC6CABD631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBBEC83-378A-40D5-A6ED-68BA00874553}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16584,18 +16584,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CAB2225F-AF64-4B7C-9DA8-3459B0A587B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC370B28-D730-458F-8A54-35D0C91DD4B5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{52D953A0-1ABD-4BE8-9839-72800206358F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{630F3D5D-73C7-469C-B5F9-F2AB2FE36BF6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{013E8F58-CF1E-40ED-9E65-963770988283}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{785A8F7E-5E31-40E7-9D8C-AEE9AE2BDEEF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8D35C04-4FE1-4710-A3E7-38FA0C866504}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14BF361B-34D8-47CE-AFD2-FAF23F90082F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{79FF36E8-84D8-4A03-B313-3A03AB7814DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5AF67A01-84D7-4331-A9F2-218329139DAB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9DDFD29-AD47-4DD3-85D1-14579A2E5580}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B570DA9-48FB-48B5-A36F-BBC18959BDEF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4FBB86EB-C3B1-4E38-937C-729A1BCF5A12}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42177A0B-88E4-449D-B9D6-CE6D15AB9FD7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F611C8FC-B26E-412F-8436-97AD4BFAD4A5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FD1E6D85-D717-49E8-AD86-EF800273EA96}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE860DB1-7197-4776-AE31-C9AB3F061B3D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1AB5861A-F11B-43C6-B28D-B6803B82028A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67E5CC5F-60A0-489B-BFB8-E1C869EFA367}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F27F3A0C-5F02-4298-B0E3-4EC3FB2AA758}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB93753E-FE5B-41FF-9C8D-552BFE5E316C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{09384EEC-7AA6-43FC-A8B1-B02F642CA526}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36100151-2141-41CD-AD6B-CE3BA798B5F1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ABC96093-1C6A-4FB3-B460-0CD268B3E9FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
